--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1641426.516541902</v>
+        <v>1639731.658308007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467998.7443552726</v>
+        <v>252528.6730956151</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
-        <v>220.8837963815378</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2.861190430307535</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>129.4004656787427</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>111.4549928437774</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>183.4693513325733</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>227.5210474355601</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.91321639899685</v>
+        <v>126.6087008028653</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>40.47627913313511</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.23748444544588</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>129.9586801842565</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>84.47684708846108</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.7795714149542</v>
+        <v>357.7795714149541</v>
       </c>
       <c r="C11" t="n">
-        <v>340.3186215224812</v>
+        <v>338.6366545598197</v>
       </c>
       <c r="D11" t="n">
-        <v>329.7287713721566</v>
+        <v>329.7287713721565</v>
       </c>
       <c r="E11" t="n">
-        <v>356.9760998237354</v>
+        <v>356.9760998237353</v>
       </c>
       <c r="F11" t="n">
-        <v>381.9217754931851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312782</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638753</v>
+        <v>130.4731875638751</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171956</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564837</v>
+        <v>226.2032352564836</v>
       </c>
       <c r="V11" t="n">
-        <v>9.478734153965643</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W11" t="n">
-        <v>324.2866984688866</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X11" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075272</v>
+        <v>361.2836684075271</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501015</v>
+        <v>142.2925508501013</v>
       </c>
       <c r="D13" t="n">
-        <v>123.661202769686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320201</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754402</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880646</v>
+        <v>169.9220913963748</v>
       </c>
       <c r="X13" t="n">
-        <v>170.9782731045252</v>
+        <v>200.7553851405107</v>
       </c>
       <c r="Y13" t="n">
-        <v>193.6303831035684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357.7795714149542</v>
+        <v>357.779571414954</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>340.318621522481</v>
       </c>
       <c r="D14" t="n">
-        <v>144.5389924991021</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931851</v>
+        <v>297.0262795019528</v>
       </c>
       <c r="G14" t="n">
-        <v>387.9966247312782</v>
+        <v>387.996624731278</v>
       </c>
       <c r="H14" t="n">
-        <v>290.4347245022873</v>
+        <v>290.4347245022872</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855052</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4731875638753</v>
+        <v>130.4731875638751</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171958</v>
+        <v>187.8463886171956</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>226.2032352564835</v>
       </c>
       <c r="V14" t="n">
-        <v>302.7979882216085</v>
+        <v>302.7979882216084</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>324.2866984688865</v>
       </c>
       <c r="X14" t="n">
-        <v>344.7768304299427</v>
+        <v>344.7768304299425</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.2836684075272</v>
+        <v>361.283668407527</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>141.981753513654</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.91654560748434</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>104.904481317799</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.6773288969399</v>
       </c>
       <c r="T16" t="n">
-        <v>198.4837816320203</v>
+        <v>144.2252144726334</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754402</v>
+        <v>261.3072160754401</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753017</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>200.7553851405106</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C17" t="n">
-        <v>282.5551163781029</v>
+        <v>282.5551163781028</v>
       </c>
       <c r="D17" t="n">
         <v>271.9652662277782</v>
@@ -1853,16 +1853,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1582703488067</v>
+        <v>324.1582703488066</v>
       </c>
       <c r="G17" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H17" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579089</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417218</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728173</v>
       </c>
       <c r="U17" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V17" t="n">
-        <v>245.0344830772302</v>
+        <v>245.0344830772301</v>
       </c>
       <c r="W17" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245082</v>
       </c>
       <c r="X17" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855642</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5201632631489</v>
+        <v>303.5201632631488</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I18" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S18" t="n">
         <v>148.3099331995005</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903258</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572312</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D19" t="n">
-        <v>65.89769762530764</v>
+        <v>65.89769762530757</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366446</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002653</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927567</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307805</v>
+        <v>45.48533983344487</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263669</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342085</v>
+        <v>47.14097617342079</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T19" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5437109310619</v>
+        <v>203.5437109310618</v>
       </c>
       <c r="V19" t="n">
-        <v>40.05183009498737</v>
+        <v>169.4198679309232</v>
       </c>
       <c r="W19" t="n">
-        <v>203.8052229436863</v>
+        <v>203.8052229436862</v>
       </c>
       <c r="X19" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>135.8668779591901</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949681</v>
       </c>
       <c r="T20" t="n">
         <v>130.0828834728173</v>
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2239,16 +2239,16 @@
         <v>97.11420478903251</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>84.52904570572305</v>
       </c>
       <c r="D22" t="n">
         <v>65.89769762530757</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366439</v>
+        <v>38.0587296503935</v>
       </c>
       <c r="F22" t="n">
-        <v>17.86428049981441</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>84.2182483692756</v>
@@ -2257,7 +2257,7 @@
         <v>70.12988281307797</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>232.6712193579089</v>
       </c>
       <c r="I23" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417209</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>72.70968241949683</v>
@@ -2372,7 +2372,7 @@
         <v>130.0828834728173</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4397301121053</v>
+        <v>168.4397301121049</v>
       </c>
       <c r="V23" t="n">
         <v>245.0344830772301</v>
@@ -2415,7 +2415,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I24" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S24" t="n">
         <v>148.3099331995005</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C25" t="n">
         <v>84.52904570572305</v>
@@ -2488,13 +2488,13 @@
         <v>62.70327263002646</v>
       </c>
       <c r="G25" t="n">
-        <v>84.2182483692756</v>
+        <v>24.98009334642062</v>
       </c>
       <c r="H25" t="n">
-        <v>70.12988281307798</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8.753474555735757</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.1409761734208</v>
+        <v>47.14097617342078</v>
       </c>
       <c r="S25" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T25" t="n">
         <v>140.7202764876419</v>
@@ -2564,13 +2564,13 @@
         <v>299.212594679357</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H26" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
         <v>37.08870483417211</v>
@@ -2615,10 +2615,10 @@
         <v>245.0344830772301</v>
       </c>
       <c r="W26" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X26" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
         <v>303.5201632631488</v>
@@ -2652,7 +2652,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I27" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S27" t="n">
         <v>148.3099331995005</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903253</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572306</v>
       </c>
       <c r="D28" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530759</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002648</v>
       </c>
       <c r="G28" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927561</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307797</v>
+        <v>45.48533983344493</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342078</v>
+        <v>47.1409761734208</v>
       </c>
       <c r="S28" t="n">
         <v>122.9138237525617</v>
@@ -2779,7 +2779,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.498840123256315</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>300.0160662705758</v>
+        <v>300.0160662705759</v>
       </c>
       <c r="C29" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D29" t="n">
-        <v>271.9652662277782</v>
+        <v>271.9652662277783</v>
       </c>
       <c r="E29" t="n">
-        <v>299.212594679357</v>
+        <v>299.2125946793571</v>
       </c>
       <c r="F29" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488068</v>
       </c>
       <c r="G29" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U29" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V29" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I30" t="n">
-        <v>46.07197699567762</v>
+        <v>46.07197699567761</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.02995793686992</v>
+        <v>22.02995793686991</v>
       </c>
       <c r="S30" t="n">
         <v>148.3099331995005</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903251</v>
+        <v>97.1142047890326</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572314</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530766</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366447</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002655</v>
       </c>
       <c r="G31" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927568</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307798</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342078</v>
+        <v>28.91012875319923</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525616</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T31" t="n">
-        <v>140.7202764876418</v>
+        <v>140.7202764876419</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V31" t="n">
-        <v>40.05183009498977</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W31" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X31" t="n">
-        <v>142.9918799961324</v>
+        <v>142.9918799961325</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C32" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D32" t="n">
         <v>271.9652662277782</v>
@@ -3038,16 +3038,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F32" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G32" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H32" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I32" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T32" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U32" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V32" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W32" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X32" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C34" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.4853398334435</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G34" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307797</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263662</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342087</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525617</v>
@@ -3241,19 +3241,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U34" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V34" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W34" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X34" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.9183000069466</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C35" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D35" t="n">
         <v>271.9652662277782</v>
@@ -3275,16 +3275,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F35" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G35" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H35" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I35" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T35" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U35" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V35" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W35" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X35" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631479</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903251</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C37" t="n">
-        <v>83.76197812512355</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366439</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307797</v>
+        <v>3.465117607168493</v>
       </c>
       <c r="I37" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342087</v>
       </c>
       <c r="S37" t="n">
         <v>122.9138237525617</v>
@@ -3478,19 +3478,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U37" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V37" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W37" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X37" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y37" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C38" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D38" t="n">
         <v>271.9652662277782</v>
@@ -3512,16 +3512,16 @@
         <v>299.212594679357</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1582703488066</v>
+        <v>324.1582703488067</v>
       </c>
       <c r="G38" t="n">
         <v>330.2331195868998</v>
       </c>
       <c r="H38" t="n">
-        <v>232.6712193579089</v>
+        <v>232.671219357909</v>
       </c>
       <c r="I38" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417218</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70968241949683</v>
+        <v>72.70968241949691</v>
       </c>
       <c r="T38" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U38" t="n">
         <v>168.4397301121053</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0344830772301</v>
+        <v>245.0344830772302</v>
       </c>
       <c r="W38" t="n">
-        <v>266.5231933245082</v>
+        <v>266.5231933245083</v>
       </c>
       <c r="X38" t="n">
-        <v>287.0133252855642</v>
+        <v>287.0133252855643</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.87604976617585</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572305</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D40" t="n">
-        <v>65.89769762530757</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71618725366439</v>
+        <v>4.478032230806903</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G40" t="n">
-        <v>84.2182483692756</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263662</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.14097617342078</v>
+        <v>47.14097617342087</v>
       </c>
       <c r="S40" t="n">
         <v>122.9138237525617</v>
@@ -3715,19 +3715,19 @@
         <v>140.7202764876419</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5437109310618</v>
+        <v>203.5437109310619</v>
       </c>
       <c r="V40" t="n">
-        <v>169.4198679309232</v>
+        <v>169.4198679309233</v>
       </c>
       <c r="W40" t="n">
-        <v>203.8052229436862</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X40" t="n">
         <v>142.9918799961324</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="41">
@@ -3904,16 +3904,16 @@
         <v>65.89769762530757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002646</v>
+        <v>3.465117607170364</v>
       </c>
       <c r="G43" t="n">
-        <v>18.56639778700603</v>
+        <v>84.2182483692756</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307797</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>41.00730760263662</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949683</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728173</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.11420478903251</v>
       </c>
       <c r="C46" t="n">
         <v>84.52904570572305</v>
@@ -4141,13 +4141,13 @@
         <v>65.89769762530757</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70327263002646</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.2182483692756</v>
+        <v>81.2696704170326</v>
       </c>
       <c r="H46" t="n">
         <v>70.12988281307797</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.88714312651926</v>
+        <v>47.1409761734208</v>
       </c>
       <c r="S46" t="n">
-        <v>122.9138237525617</v>
+        <v>122.9138237525616</v>
       </c>
       <c r="T46" t="n">
-        <v>140.7202764876419</v>
+        <v>140.7202764876418</v>
       </c>
       <c r="U46" t="n">
         <v>203.5437109310618</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="F2" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4358,22 +4358,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>725.7261058045921</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>833.3496144209971</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>631.1630197797631</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>631.1630197797631</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V3" t="n">
-        <v>396.0109115480204</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W3" t="n">
-        <v>396.0109115480204</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X3" t="n">
-        <v>396.0109115480204</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.2506127830665</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>734.2379156767371</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>490.789139032637</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7454097505996</v>
+        <v>490.789139032637</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>490.789139032637</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>734.2379156767371</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>734.2379156767371</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>734.2379156767371</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>734.2379156767371</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649.1947276839472</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C6" t="n">
-        <v>474.7416984028202</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D6" t="n">
-        <v>325.807288741569</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>728.9050472788936</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>772.0302844130649</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>502.6601697108322</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="W9" t="n">
-        <v>878.7270069364331</v>
+        <v>314.750110744579</v>
       </c>
       <c r="X9" t="n">
-        <v>670.8755067309003</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8755067309003</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1888.298836793186</v>
+        <v>1402.27293509133</v>
       </c>
       <c r="C11" t="n">
-        <v>1544.542653437145</v>
+        <v>1060.215708263229</v>
       </c>
       <c r="D11" t="n">
-        <v>1211.483288414764</v>
+        <v>727.1563432408489</v>
       </c>
       <c r="E11" t="n">
-        <v>850.9013694008901</v>
+        <v>366.5744242269748</v>
       </c>
       <c r="F11" t="n">
-        <v>465.1217981956526</v>
+        <v>366.5744242269748</v>
       </c>
       <c r="G11" t="n">
-        <v>73.20601563880585</v>
+        <v>366.5744242269748</v>
       </c>
       <c r="H11" t="n">
         <v>73.20601563880585</v>
@@ -5039,10 +5039,10 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J11" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
@@ -5054,7 +5054,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P11" t="n">
         <v>3418.758763931392</v>
@@ -5069,22 +5069,22 @@
         <v>3528.509683390924</v>
       </c>
       <c r="T11" t="n">
-        <v>3528.509683390924</v>
+        <v>3338.765856504867</v>
       </c>
       <c r="U11" t="n">
-        <v>3300.021566970233</v>
+        <v>3110.277740084177</v>
       </c>
       <c r="V11" t="n">
-        <v>3290.447088026834</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W11" t="n">
-        <v>2962.884766341089</v>
+        <v>2476.858864639233</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.625341664379</v>
+        <v>2128.599439962523</v>
       </c>
       <c r="Y11" t="n">
-        <v>2249.692343272938</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>73.20601563880585</v>
       </c>
       <c r="K12" t="n">
-        <v>399.7270172373158</v>
+        <v>220.7694821031847</v>
       </c>
       <c r="L12" t="n">
         <v>721.2216602335594</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.8461708103084</v>
+        <v>216.9358649823426</v>
       </c>
       <c r="C13" t="n">
-        <v>198.1163214667715</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="D13" t="n">
         <v>73.20601563880585</v>
@@ -5197,52 +5197,52 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J13" t="n">
-        <v>79.32466191965304</v>
+        <v>79.32466191965317</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420085</v>
+        <v>203.3235852420088</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895915</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475062</v>
+        <v>638.2252920475066</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183689</v>
       </c>
       <c r="O13" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P13" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S13" t="n">
-        <v>1238.295262094751</v>
+        <v>1055.792909673601</v>
       </c>
       <c r="T13" t="n">
-        <v>1238.295262094751</v>
+        <v>855.304241358429</v>
       </c>
       <c r="U13" t="n">
-        <v>974.3485791902662</v>
+        <v>591.357558453944</v>
       </c>
       <c r="V13" t="n">
-        <v>974.3485791902662</v>
+        <v>591.357558453944</v>
       </c>
       <c r="W13" t="n">
-        <v>710.1377427376756</v>
+        <v>419.7190822959897</v>
       </c>
       <c r="X13" t="n">
-        <v>537.4324163694685</v>
+        <v>216.9358649823426</v>
       </c>
       <c r="Y13" t="n">
-        <v>341.8461708103084</v>
+        <v>216.9358649823426</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1729.835256777073</v>
+        <v>1402.27293509133</v>
       </c>
       <c r="C14" t="n">
-        <v>1386.079073421031</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="D14" t="n">
-        <v>1240.080091098706</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="E14" t="n">
-        <v>1240.080091098706</v>
+        <v>1058.516751735289</v>
       </c>
       <c r="F14" t="n">
-        <v>854.3005198934686</v>
+        <v>758.4902067838211</v>
       </c>
       <c r="G14" t="n">
-        <v>462.3847373366219</v>
+        <v>366.5744242269747</v>
       </c>
       <c r="H14" t="n">
-        <v>169.0163287484528</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I14" t="n">
         <v>73.20601563880585</v>
@@ -5279,10 +5279,10 @@
         <v>258.9898176069159</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223496</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
         <v>1831.488208231171</v>
@@ -5291,7 +5291,7 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O14" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P14" t="n">
         <v>3418.758763931392</v>
@@ -5312,16 +5312,16 @@
         <v>3110.277740084177</v>
       </c>
       <c r="V14" t="n">
-        <v>2804.421186324976</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W14" t="n">
-        <v>2804.421186324976</v>
+        <v>2476.858864639233</v>
       </c>
       <c r="X14" t="n">
-        <v>2456.161761648266</v>
+        <v>2128.599439962523</v>
       </c>
       <c r="Y14" t="n">
-        <v>2091.228763256825</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>198.5635756966433</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2399909688012</v>
+        <v>483.3355229111868</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.223299682973</v>
+        <v>1119.318831625359</v>
       </c>
       <c r="N15" t="n">
-        <v>1860.746207538869</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O15" t="n">
-        <v>2405.898383424631</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P15" t="n">
-        <v>2588.541861037982</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.936419551312</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>438.4176337103457</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="C16" t="n">
-        <v>438.4176337103457</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="D16" t="n">
-        <v>313.5073278823801</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="E16" t="n">
-        <v>313.5073278823801</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="F16" t="n">
-        <v>313.5073278823801</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="G16" t="n">
-        <v>170.0914152423254</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H16" t="n">
-        <v>170.0914152423254</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I16" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965307</v>
+        <v>79.32466191965318</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420086</v>
+        <v>203.3235852420088</v>
       </c>
       <c r="L16" t="n">
-        <v>410.6171321895912</v>
+        <v>410.6171321895917</v>
       </c>
       <c r="M16" t="n">
-        <v>638.2252920475062</v>
+        <v>638.225292047507</v>
       </c>
       <c r="N16" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183693</v>
       </c>
       <c r="O16" t="n">
-        <v>1063.109528897734</v>
+        <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392007</v>
+        <v>1211.436193392008</v>
       </c>
       <c r="Q16" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094753</v>
       </c>
       <c r="R16" t="n">
-        <v>1132.33113955152</v>
+        <v>1132.331139551522</v>
       </c>
       <c r="S16" t="n">
-        <v>1132.33113955152</v>
+        <v>949.8287871303702</v>
       </c>
       <c r="T16" t="n">
-        <v>931.8424712363476</v>
+        <v>804.1467523095283</v>
       </c>
       <c r="U16" t="n">
-        <v>667.8957883318626</v>
+        <v>540.2000694050433</v>
       </c>
       <c r="V16" t="n">
-        <v>438.4176337103457</v>
+        <v>540.2000694050433</v>
       </c>
       <c r="W16" t="n">
-        <v>438.4176337103457</v>
+        <v>275.9892329524529</v>
       </c>
       <c r="X16" t="n">
-        <v>438.4176337103457</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.4176337103457</v>
+        <v>73.20601563880585</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C17" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E17" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F17" t="n">
-        <v>679.2595952135341</v>
+        <v>679.2595952135337</v>
       </c>
       <c r="G17" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499987</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551413</v>
       </c>
       <c r="I17" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K17" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N17" t="n">
         <v>2452.791422191916</v>
@@ -5534,7 +5534,7 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R17" t="n">
         <v>3660.300781940293</v>
@@ -5546,19 +5546,19 @@
         <v>3455.459806291491</v>
       </c>
       <c r="U17" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V17" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W17" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X17" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y17" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="18">
@@ -5580,10 +5580,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G18" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H18" t="n">
         <v>119.7433661394903</v>
@@ -5592,25 +5592,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J18" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615503</v>
       </c>
       <c r="K18" t="n">
-        <v>399.7270172373158</v>
+        <v>516.6851972600602</v>
       </c>
       <c r="L18" t="n">
-        <v>900.1791953676905</v>
+        <v>1017.137375390435</v>
       </c>
       <c r="M18" t="n">
-        <v>1536.162504081863</v>
+        <v>1091.715341208881</v>
       </c>
       <c r="N18" t="n">
-        <v>2157.144969340669</v>
+        <v>1760.238249064777</v>
       </c>
       <c r="O18" t="n">
-        <v>2405.898383424631</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P18" t="n">
-        <v>2588.541861037982</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.1773711940707</v>
+        <v>419.5025855012074</v>
       </c>
       <c r="C19" t="n">
-        <v>464.7944967438453</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2311658091912</v>
+        <v>267.556380116328</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044796</v>
+        <v>267.556380116328</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842508</v>
+        <v>204.2197410960993</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375076</v>
+        <v>119.1508033493562</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I19" t="n">
         <v>73.20601563880585</v>
@@ -5674,49 +5674,49 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L19" t="n">
-        <v>582.1747424683948</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O19" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P19" t="n">
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
       </c>
       <c r="S19" t="n">
-        <v>1524.009697660468</v>
+        <v>1524.009697660469</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U19" t="n">
-        <v>1176.268296227433</v>
+        <v>1176.268296227435</v>
       </c>
       <c r="V19" t="n">
-        <v>1135.811902192092</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>929.9480406328132</v>
+        <v>799.2732549399502</v>
       </c>
       <c r="X19" t="n">
-        <v>785.5117982124774</v>
+        <v>654.8370125196145</v>
       </c>
       <c r="Y19" t="n">
-        <v>648.2725275466289</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E20" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H20" t="n">
         <v>110.6693538551413</v>
@@ -5753,22 +5753,22 @@
         <v>258.9898176069162</v>
       </c>
       <c r="K20" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223491</v>
       </c>
       <c r="L20" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M20" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N20" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O20" t="n">
         <v>2994.282791219483</v>
       </c>
       <c r="P20" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q20" t="n">
         <v>3660.300781940293</v>
@@ -5780,22 +5780,22 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T20" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U20" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V20" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W20" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y20" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="21">
@@ -5817,10 +5817,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G21" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H21" t="n">
         <v>119.7433661394903</v>
@@ -5835,16 +5835,16 @@
         <v>399.7270172373158</v>
       </c>
       <c r="L21" t="n">
-        <v>900.1791953676905</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="M21" t="n">
-        <v>1536.162504081863</v>
+        <v>1035.710325951488</v>
       </c>
       <c r="N21" t="n">
-        <v>1880.68315971948</v>
+        <v>1622.860070216497</v>
       </c>
       <c r="O21" t="n">
-        <v>2405.898383424631</v>
+        <v>2168.012246102259</v>
       </c>
       <c r="P21" t="n">
         <v>2588.541861037982</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>419.5025855012074</v>
+        <v>419.5025855012076</v>
       </c>
       <c r="C22" t="n">
-        <v>419.5025855012074</v>
+        <v>334.1197110509823</v>
       </c>
       <c r="D22" t="n">
-        <v>352.9392545665532</v>
+        <v>267.5563801163282</v>
       </c>
       <c r="E22" t="n">
-        <v>288.5794694618418</v>
+        <v>229.1132188533044</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842515</v>
+        <v>229.1132188533044</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H22" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I22" t="n">
         <v>73.20601563880585</v>
@@ -5911,10 +5911,10 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L22" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M22" t="n">
         <v>866.9687724192447</v>
@@ -5953,7 +5953,7 @@
         <v>654.8370125196141</v>
       </c>
       <c r="Y22" t="n">
-        <v>517.5977418537655</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223496</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L23" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M23" t="n">
         <v>1831.488208231171</v>
@@ -6002,19 +6002,19 @@
         <v>2452.791422191916</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P23" t="n">
         <v>3418.758763931392</v>
       </c>
       <c r="Q23" t="n">
-        <v>3660.300781940292</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R23" t="n">
         <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T23" t="n">
         <v>3455.459806291491</v>
@@ -6054,10 +6054,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G24" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
@@ -6066,25 +6066,25 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J24" t="n">
-        <v>190.1641956615502</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K24" t="n">
-        <v>516.6851972600601</v>
+        <v>225.7689266263591</v>
       </c>
       <c r="L24" t="n">
-        <v>1017.137375390435</v>
+        <v>455.7320324947083</v>
       </c>
       <c r="M24" t="n">
-        <v>1653.120684104607</v>
+        <v>1091.715341208881</v>
       </c>
       <c r="N24" t="n">
-        <v>2321.643591960503</v>
+        <v>1760.238249064777</v>
       </c>
       <c r="O24" t="n">
-        <v>2657.936419551312</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
-        <v>2657.936419551312</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>517.5977418537656</v>
+        <v>419.5025855012074</v>
       </c>
       <c r="C25" t="n">
-        <v>432.2148674035407</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D25" t="n">
-        <v>365.6515364688865</v>
+        <v>267.556380116328</v>
       </c>
       <c r="E25" t="n">
-        <v>301.2917513641751</v>
+        <v>203.1965950116165</v>
       </c>
       <c r="F25" t="n">
-        <v>237.9551123439461</v>
+        <v>139.8599559913878</v>
       </c>
       <c r="G25" t="n">
-        <v>152.8861745972031</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H25" t="n">
-        <v>82.04790912944803</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880585</v>
@@ -6148,13 +6148,13 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
@@ -6212,28 +6212,28 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135334</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H26" t="n">
         <v>110.6693538551413</v>
       </c>
       <c r="I26" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M26" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N26" t="n">
         <v>2452.791422191916</v>
@@ -6251,7 +6251,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S26" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T26" t="n">
         <v>3455.459806291491</v>
@@ -6300,25 +6300,25 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I27" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J27" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K27" t="n">
-        <v>327.4040004184301</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L27" t="n">
-        <v>827.8561785488048</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M27" t="n">
-        <v>1463.839487262977</v>
+        <v>1220.514514897392</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.839487262977</v>
+        <v>1889.037422753288</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.991663148739</v>
+        <v>2246.877800471112</v>
       </c>
       <c r="P27" t="n">
         <v>2429.521278084463</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.1773711940702</v>
+        <v>419.5025855012075</v>
       </c>
       <c r="C28" t="n">
-        <v>464.7944967438449</v>
+        <v>334.1197110509822</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091908</v>
+        <v>267.5563801163281</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044792</v>
+        <v>267.5563801163281</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842505</v>
+        <v>204.2197410960994</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>119.1508033493563</v>
       </c>
       <c r="H28" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20601563880585</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125874</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278774</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9687724192443</v>
+        <v>866.9687724192448</v>
       </c>
       <c r="N28" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O28" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P28" t="n">
-        <v>1611.737284042549</v>
+        <v>1611.73728404255</v>
       </c>
       <c r="Q28" t="n">
-        <v>1695.782222838228</v>
+        <v>1695.782222838229</v>
       </c>
       <c r="R28" t="n">
         <v>1648.165075188308</v>
@@ -6412,7 +6412,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T28" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U28" t="n">
         <v>1176.268296227434</v>
@@ -6421,13 +6421,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399498</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196141</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y28" t="n">
-        <v>648.2725275466283</v>
+        <v>517.5977418537657</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135339</v>
+        <v>679.259595213534</v>
       </c>
       <c r="G29" t="n">
         <v>345.6907875499987</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J29" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
         <v>658.1763815223499</v>
       </c>
       <c r="L29" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
         <v>1831.488208231171</v>
       </c>
       <c r="N29" t="n">
-        <v>2452.791422191915</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O29" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P29" t="n">
-        <v>3418.758763931392</v>
+        <v>3418.758763931393</v>
       </c>
       <c r="Q29" t="n">
-        <v>3660.300781940291</v>
+        <v>3660.300781940293</v>
       </c>
       <c r="R29" t="n">
         <v>3660.300781940293</v>
@@ -6540,19 +6540,19 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3332706929089</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K30" t="n">
-        <v>159.3332706929089</v>
+        <v>198.5635756966433</v>
       </c>
       <c r="L30" t="n">
-        <v>159.3332706929089</v>
+        <v>699.015753827018</v>
       </c>
       <c r="M30" t="n">
-        <v>795.316579407081</v>
+        <v>1019.35107335672</v>
       </c>
       <c r="N30" t="n">
-        <v>1463.839487262977</v>
+        <v>1687.873981212616</v>
       </c>
       <c r="O30" t="n">
         <v>2008.991663148739</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.1773711940702</v>
+        <v>437.9175828953694</v>
       </c>
       <c r="C31" t="n">
-        <v>464.794496743845</v>
+        <v>352.534708445144</v>
       </c>
       <c r="D31" t="n">
-        <v>398.2311658091909</v>
+        <v>285.9713775104898</v>
       </c>
       <c r="E31" t="n">
-        <v>333.8713807044793</v>
+        <v>221.6115924057782</v>
       </c>
       <c r="F31" t="n">
-        <v>270.5347416842506</v>
+        <v>158.2749533855493</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375076</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O31" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P31" t="n">
         <v>1611.737284042549</v>
@@ -6643,28 +6643,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R31" t="n">
-        <v>1648.165075188308</v>
+        <v>1666.580072582471</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1542.424695054631</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238608</v>
+        <v>1400.28300163277</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227434</v>
+        <v>1194.683293621596</v>
       </c>
       <c r="V31" t="n">
-        <v>1135.811902192092</v>
+        <v>1023.552113893391</v>
       </c>
       <c r="W31" t="n">
-        <v>929.9480406328125</v>
+        <v>817.6882523341121</v>
       </c>
       <c r="X31" t="n">
-        <v>785.5117982124768</v>
+        <v>673.2520099137762</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.2725275466283</v>
+        <v>536.0127392479276</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E32" t="n">
-        <v>1006.69219152546</v>
+        <v>1006.692191525459</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G32" t="n">
-        <v>345.6907875499988</v>
+        <v>345.6907875499983</v>
       </c>
       <c r="H32" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I32" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M32" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N32" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O32" t="n">
-        <v>2994.282791219483</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P32" t="n">
         <v>3418.758763931393</v>
@@ -6777,22 +6777,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3332706929089</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K33" t="n">
-        <v>159.3332706929089</v>
+        <v>198.5635756966433</v>
       </c>
       <c r="L33" t="n">
-        <v>159.3332706929089</v>
+        <v>699.0157538270179</v>
       </c>
       <c r="M33" t="n">
-        <v>795.316579407081</v>
+        <v>1334.99906254119</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.839487262977</v>
+        <v>1701.72562458535</v>
       </c>
       <c r="O33" t="n">
-        <v>2008.991663148739</v>
+        <v>2246.877800471112</v>
       </c>
       <c r="P33" t="n">
         <v>2429.521278084463</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>422.4809470691299</v>
+        <v>419.502585501206</v>
       </c>
       <c r="C34" t="n">
-        <v>337.0980726189046</v>
+        <v>334.1197110509806</v>
       </c>
       <c r="D34" t="n">
-        <v>270.5347416842505</v>
+        <v>267.5563801163265</v>
       </c>
       <c r="E34" t="n">
-        <v>270.5347416842505</v>
+        <v>221.6115924057775</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842505</v>
+        <v>158.2749533855489</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375074</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="H34" t="n">
-        <v>114.6275384697519</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K34" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L34" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M34" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N34" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O34" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P34" t="n">
         <v>1611.737284042549</v>
@@ -6886,22 +6886,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399498</v>
+        <v>799.2732549399486</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196141</v>
+        <v>654.8370125196128</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.576103421688</v>
+        <v>517.5977418537642</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D35" t="n">
         <v>1308.927135646023</v>
@@ -6923,64 +6923,64 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499992</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223503</v>
+        <v>658.1763815223496</v>
       </c>
       <c r="L35" t="n">
-        <v>1205.679240092235</v>
+        <v>1205.679240092234</v>
       </c>
       <c r="M35" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N35" t="n">
         <v>2452.791422191916</v>
       </c>
       <c r="O35" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P35" t="n">
-        <v>3418.758763931393</v>
+        <v>3418.758763931392</v>
       </c>
       <c r="Q35" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="R35" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940292</v>
       </c>
       <c r="S35" t="n">
-        <v>3586.856658284236</v>
+        <v>3586.856658284235</v>
       </c>
       <c r="T35" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W35" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.593739105789</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J36" t="n">
-        <v>159.3332706929089</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3332706929089</v>
+        <v>516.6851972600601</v>
       </c>
       <c r="L36" t="n">
-        <v>159.3332706929089</v>
+        <v>712.8673971997518</v>
       </c>
       <c r="M36" t="n">
-        <v>795.316579407081</v>
+        <v>1033.202716729454</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.839487262977</v>
+        <v>1701.72562458535</v>
       </c>
       <c r="O36" t="n">
-        <v>2008.991663148739</v>
+        <v>2246.877800471112</v>
       </c>
       <c r="P36" t="n">
         <v>2429.521278084463</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>419.5025855012079</v>
+        <v>419.5025855012059</v>
       </c>
       <c r="C37" t="n">
-        <v>334.8945267889619</v>
+        <v>334.1197110509805</v>
       </c>
       <c r="D37" t="n">
-        <v>334.8945267889619</v>
+        <v>267.5563801163264</v>
       </c>
       <c r="E37" t="n">
-        <v>270.5347416842504</v>
+        <v>203.1965950116148</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842504</v>
+        <v>203.1965950116148</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375074</v>
+        <v>118.1276572648717</v>
       </c>
       <c r="H37" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
         <v>73.20601563880585</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K37" t="n">
         <v>317.6953254278776</v>
       </c>
       <c r="L37" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M37" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N37" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P37" t="n">
         <v>1611.737284042549</v>
@@ -7123,22 +7123,22 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U37" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W37" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399487</v>
       </c>
       <c r="X37" t="n">
-        <v>654.8370125196144</v>
+        <v>654.8370125196129</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.597741853766</v>
+        <v>517.5977418537641</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C38" t="n">
         <v>1583.639525775091</v>
@@ -7160,13 +7160,13 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.259595213534</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499988</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H38" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I38" t="n">
         <v>73.20601563880585</v>
@@ -7184,7 +7184,7 @@
         <v>1831.488208231171</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191915</v>
       </c>
       <c r="O38" t="n">
         <v>2994.282791219483</v>
@@ -7251,19 +7251,19 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J39" t="n">
-        <v>159.3332706929089</v>
+        <v>73.20601563880585</v>
       </c>
       <c r="K39" t="n">
-        <v>159.3332706929089</v>
+        <v>399.7270172373158</v>
       </c>
       <c r="L39" t="n">
-        <v>159.3332706929089</v>
+        <v>900.1791953676905</v>
       </c>
       <c r="M39" t="n">
-        <v>795.316579407081</v>
+        <v>1536.162504081863</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.839487262977</v>
+        <v>1760.238249064777</v>
       </c>
       <c r="O39" t="n">
         <v>2008.991663148739</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>479.3391057263147</v>
+        <v>419.5025855012065</v>
       </c>
       <c r="C40" t="n">
-        <v>393.9562312760895</v>
+        <v>334.119711050981</v>
       </c>
       <c r="D40" t="n">
-        <v>327.3929003414353</v>
+        <v>267.5563801163269</v>
       </c>
       <c r="E40" t="n">
-        <v>263.0331152367238</v>
+        <v>263.0331152367239</v>
       </c>
       <c r="F40" t="n">
-        <v>199.696476216495</v>
+        <v>199.6964762164951</v>
       </c>
       <c r="G40" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H40" t="n">
-        <v>114.6275384697519</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880585</v>
@@ -7333,19 +7333,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L40" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683948</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192445</v>
       </c>
       <c r="N40" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P40" t="n">
         <v>1611.737284042549</v>
@@ -7363,19 +7363,19 @@
         <v>1381.868004238607</v>
       </c>
       <c r="U40" t="n">
-        <v>1176.268296227434</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V40" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399491</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196133</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.597741853765</v>
+        <v>517.5977418537647</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D41" t="n">
         <v>1308.927135646023</v>
@@ -7409,22 +7409,22 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J41" t="n">
-        <v>258.9898176069175</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K41" t="n">
-        <v>658.1763815223511</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L41" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M41" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N41" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O41" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219483</v>
       </c>
       <c r="P41" t="n">
         <v>3418.758763931393</v>
@@ -7439,7 +7439,7 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T41" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.45980629149</v>
       </c>
       <c r="U41" t="n">
         <v>3285.318664764112</v>
@@ -7448,7 +7448,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W41" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X41" t="n">
         <v>2478.681289322392</v>
@@ -7491,22 +7491,22 @@
         <v>190.1641956615502</v>
       </c>
       <c r="K42" t="n">
-        <v>190.1641956615502</v>
+        <v>326.2768851004521</v>
       </c>
       <c r="L42" t="n">
-        <v>190.1641956615502</v>
+        <v>556.2399909688013</v>
       </c>
       <c r="M42" t="n">
-        <v>826.1475043757224</v>
+        <v>1192.223299682973</v>
       </c>
       <c r="N42" t="n">
-        <v>1494.670412231618</v>
+        <v>1860.746207538869</v>
       </c>
       <c r="O42" t="n">
-        <v>2039.82258811738</v>
+        <v>2405.898383424631</v>
       </c>
       <c r="P42" t="n">
-        <v>2460.352203053104</v>
+        <v>2588.541861037982</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>419.5025855012076</v>
+        <v>419.5025855012074</v>
       </c>
       <c r="C43" t="n">
-        <v>334.1197110509823</v>
+        <v>334.1197110509821</v>
       </c>
       <c r="D43" t="n">
-        <v>267.5563801163282</v>
+        <v>267.556380116328</v>
       </c>
       <c r="E43" t="n">
-        <v>267.5563801163282</v>
+        <v>203.1965950116165</v>
       </c>
       <c r="F43" t="n">
-        <v>204.2197410960994</v>
+        <v>199.6964762164949</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375075</v>
+        <v>114.6275384697519</v>
       </c>
       <c r="H43" t="n">
         <v>114.6275384697519</v>
@@ -7567,16 +7567,16 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L43" t="n">
         <v>582.1747424683949</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
@@ -7597,7 +7597,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T43" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U43" t="n">
         <v>1176.268296227434</v>
@@ -7612,7 +7612,7 @@
         <v>654.8370125196141</v>
       </c>
       <c r="Y43" t="n">
-        <v>517.5977418537657</v>
+        <v>517.5977418537656</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1583.639525775091</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E44" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135334</v>
       </c>
       <c r="G44" t="n">
         <v>345.6907875499987</v>
@@ -7676,22 +7676,22 @@
         <v>3586.856658284235</v>
       </c>
       <c r="T44" t="n">
-        <v>3455.45980629149</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U44" t="n">
-        <v>3285.318664764112</v>
+        <v>3285.318664764111</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.809085898223</v>
+        <v>3037.809085898222</v>
       </c>
       <c r="W44" t="n">
         <v>2768.59373910579</v>
       </c>
       <c r="X44" t="n">
-        <v>2478.681289322392</v>
+        <v>2478.681289322391</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824261</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>73.20601563880585</v>
       </c>
       <c r="J45" t="n">
-        <v>73.20601563880585</v>
+        <v>190.1641956615502</v>
       </c>
       <c r="K45" t="n">
-        <v>73.20601563880585</v>
+        <v>315.5217557193876</v>
       </c>
       <c r="L45" t="n">
-        <v>159.3332706929089</v>
+        <v>545.4848615877368</v>
       </c>
       <c r="M45" t="n">
-        <v>795.316579407081</v>
+        <v>1181.468170301909</v>
       </c>
       <c r="N45" t="n">
-        <v>1463.839487262977</v>
+        <v>1525.988825939527</v>
       </c>
       <c r="O45" t="n">
         <v>2008.991663148739</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.1773711940699</v>
+        <v>419.5025855012077</v>
       </c>
       <c r="C46" t="n">
-        <v>464.7944967438448</v>
+        <v>334.1197110509824</v>
       </c>
       <c r="D46" t="n">
-        <v>398.2311658091907</v>
+        <v>267.5563801163283</v>
       </c>
       <c r="E46" t="n">
-        <v>333.8713807044792</v>
+        <v>267.5563801163283</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842504</v>
+        <v>267.5563801163283</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H46" t="n">
         <v>114.6275384697519</v>
@@ -7807,19 +7807,19 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K46" t="n">
-        <v>317.6953254278775</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683948</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7828,28 +7828,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R46" t="n">
-        <v>1680.744704528613</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="S46" t="n">
-        <v>1556.589327000773</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T46" t="n">
-        <v>1414.447633578912</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U46" t="n">
-        <v>1208.847925567738</v>
+        <v>1176.268296227434</v>
       </c>
       <c r="V46" t="n">
-        <v>1037.716745839533</v>
+        <v>1005.137116499229</v>
       </c>
       <c r="W46" t="n">
-        <v>831.8528842802541</v>
+        <v>799.2732549399498</v>
       </c>
       <c r="X46" t="n">
-        <v>687.4166418599184</v>
+        <v>654.8370125196141</v>
       </c>
       <c r="Y46" t="n">
-        <v>550.1773711940699</v>
+        <v>517.5977418537658</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9249,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>217.4653125265088</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>336.7182181027951</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>357.6808484297112</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>225.551607107251</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.681966962661363</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>381.921775493185</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>387.9966247312781</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022873</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.85220997855052</v>
+        <v>94.85220997855039</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>293.3192540676429</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>123.6612027696859</v>
       </c>
       <c r="E13" t="n">
-        <v>121.4796923980428</v>
+        <v>121.4796923980427</v>
       </c>
       <c r="F13" t="n">
-        <v>120.4667777744049</v>
+        <v>120.4667777744048</v>
       </c>
       <c r="G13" t="n">
-        <v>141.981753513654</v>
+        <v>141.9817535136539</v>
       </c>
       <c r="H13" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574563</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77081274701503</v>
+        <v>98.7708127470149</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>104.9044813177991</v>
       </c>
       <c r="S13" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>227.1833730753017</v>
+        <v>227.1833730753015</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>91.64663669168976</v>
       </c>
       <c r="X13" t="n">
-        <v>29.77711203598565</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.6303831035683</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>185.1897788730545</v>
+        <v>329.7287713721564</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237354</v>
+        <v>356.9760998237352</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>84.8954959912321</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>94.85220997855033</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>324.2866984688866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.877709933411</v>
+        <v>154.8777099334108</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501015</v>
+        <v>142.2925508501013</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.6612027696858</v>
       </c>
       <c r="E16" t="n">
-        <v>121.4796923980428</v>
+        <v>121.4796923980426</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744049</v>
+        <v>120.4667777744047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>141.9817535136538</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8933879574564</v>
+        <v>127.8933879574562</v>
       </c>
       <c r="I16" t="n">
-        <v>2.854267139530691</v>
+        <v>98.77081274701484</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.6773288969401</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>54.25856715938664</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753015</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.6303831035684</v>
+        <v>193.6303831035682</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>24.64454297963312</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.00730760263661</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>129.3680378359359</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572305</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>25.65745760327088</v>
       </c>
       <c r="F22" t="n">
-        <v>44.83899213021205</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.0073076026366</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.11420478903251</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>59.23815502285498</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I25" t="n">
-        <v>32.25383304690086</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.7161872536644</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.64454297963307</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263662</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.3680378359337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.12988281307807</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.23084742022164</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>129.3680378359334</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71618725366439</v>
+        <v>18.23084742022096</v>
       </c>
       <c r="F34" t="n">
-        <v>62.70327263002646</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.00730760263669</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.948577952243426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7670675805995018</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.89769762530757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002646</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>66.66476520590956</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.23815502285665</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>59.23815502285755</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307797</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71618725366439</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>59.2381550228561</v>
       </c>
       <c r="G43" t="n">
-        <v>65.65185058226956</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.12988281307797</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11420478903251</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.71618725366439</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.70327263002646</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.948577952242999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>32.25383304690152</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823303.6709987962</v>
+        <v>823303.6709987965</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823303.6709987961</v>
+        <v>823303.6709987965</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940627.4774996544</v>
+        <v>940627.4774996545</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940627.4774996544</v>
+        <v>940627.4774996545</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940627.4774996544</v>
+        <v>940627.4774996545</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940627.4774996545</v>
+        <v>940627.4774996544</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
-        <v>429549.7413906762</v>
+        <v>429549.7413906761</v>
       </c>
       <c r="F2" t="n">
         <v>429549.7413906761</v>
@@ -26329,31 +26329,31 @@
         <v>490762.1621737328</v>
       </c>
       <c r="H2" t="n">
+        <v>490762.1621737329</v>
+      </c>
+      <c r="I2" t="n">
+        <v>490762.1621737325</v>
+      </c>
+      <c r="J2" t="n">
         <v>490762.1621737327</v>
       </c>
-      <c r="I2" t="n">
-        <v>490762.1621737326</v>
-      </c>
-      <c r="J2" t="n">
-        <v>490762.1621737329</v>
-      </c>
       <c r="K2" t="n">
-        <v>490762.162173733</v>
+        <v>490762.1621737328</v>
       </c>
       <c r="L2" t="n">
         <v>490762.1621737328</v>
       </c>
       <c r="M2" t="n">
+        <v>490762.1621737326</v>
+      </c>
+      <c r="N2" t="n">
         <v>490762.1621737327</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>490762.1621737326</v>
       </c>
-      <c r="O2" t="n">
-        <v>490762.1621737329</v>
-      </c>
       <c r="P2" t="n">
-        <v>490762.1621737329</v>
+        <v>490762.1621737328</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893664</v>
+        <v>691230.6639893665</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550269</v>
+        <v>46210.80411550259</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83023.35879792734</v>
+        <v>83023.35879792747</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550269</v>
+        <v>46210.8041155026</v>
       </c>
       <c r="M3" t="n">
-        <v>167978.6741701941</v>
+        <v>167978.674170194</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882108</v>
+        <v>19963.41619882124</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="C4" t="n">
         <v>279125.0601321633</v>
@@ -26424,34 +26424,34 @@
         <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>25948.29403794263</v>
+        <v>25948.29403794276</v>
       </c>
       <c r="F4" t="n">
-        <v>25948.29403794262</v>
+        <v>25948.29403794282</v>
       </c>
       <c r="G4" t="n">
-        <v>84320.95715073351</v>
+        <v>84320.95715073353</v>
       </c>
       <c r="H4" t="n">
+        <v>84320.95715073358</v>
+      </c>
+      <c r="I4" t="n">
         <v>84320.95715073359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84320.95715073362</v>
       </c>
       <c r="J4" t="n">
         <v>84320.95715073358</v>
       </c>
       <c r="K4" t="n">
-        <v>84320.95715073367</v>
+        <v>84320.95715073351</v>
       </c>
       <c r="L4" t="n">
-        <v>84320.95715073358</v>
+        <v>84320.95715073351</v>
       </c>
       <c r="M4" t="n">
-        <v>84320.95715073358</v>
+        <v>84320.95715073353</v>
       </c>
       <c r="N4" t="n">
-        <v>84320.95715073362</v>
+        <v>84320.95715073353</v>
       </c>
       <c r="O4" t="n">
         <v>84320.95715073358</v>
@@ -26479,28 +26479,28 @@
         <v>70487.90653947927</v>
       </c>
       <c r="F5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="G5" t="n">
-        <v>75344.026653462</v>
+        <v>75344.02665346202</v>
       </c>
       <c r="H5" t="n">
         <v>75344.02665346202</v>
       </c>
       <c r="I5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75344.02665346203</v>
+      </c>
+      <c r="K5" t="n">
+        <v>75344.02665346202</v>
+      </c>
+      <c r="L5" t="n">
         <v>75344.026653462</v>
       </c>
-      <c r="J5" t="n">
-        <v>75344.02665346202</v>
-      </c>
-      <c r="K5" t="n">
-        <v>75344.02665346203</v>
-      </c>
-      <c r="L5" t="n">
-        <v>75344.02665346202</v>
-      </c>
       <c r="M5" t="n">
-        <v>75344.02665346202</v>
+        <v>75344.026653462</v>
       </c>
       <c r="N5" t="n">
         <v>75344.026653462</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84449.30149109726</v>
+        <v>84449.30149109708</v>
       </c>
       <c r="C6" t="n">
-        <v>165218.733022645</v>
+        <v>165218.7330226449</v>
       </c>
       <c r="D6" t="n">
         <v>165218.7330226449</v>
       </c>
       <c r="E6" t="n">
-        <v>-358117.1231761121</v>
+        <v>-358379.9370116453</v>
       </c>
       <c r="F6" t="n">
-        <v>333113.5408132542</v>
+        <v>332850.726977721</v>
       </c>
       <c r="G6" t="n">
-        <v>284886.3742540346</v>
+        <v>284878.6121717645</v>
       </c>
       <c r="H6" t="n">
-        <v>331097.1783695371</v>
+        <v>331089.4162872672</v>
       </c>
       <c r="I6" t="n">
-        <v>331097.178369537</v>
+        <v>331089.4162872668</v>
       </c>
       <c r="J6" t="n">
-        <v>248073.81957161</v>
+        <v>248066.0574893395</v>
       </c>
       <c r="K6" t="n">
-        <v>331097.1783695373</v>
+        <v>331089.4162872671</v>
       </c>
       <c r="L6" t="n">
-        <v>284886.3742540345</v>
+        <v>284878.6121717645</v>
       </c>
       <c r="M6" t="n">
-        <v>163118.504199343</v>
+        <v>163110.742117073</v>
       </c>
       <c r="N6" t="n">
-        <v>331097.178369537</v>
+        <v>331089.4162872671</v>
       </c>
       <c r="O6" t="n">
-        <v>311133.7621707162</v>
+        <v>311126.0000884457</v>
       </c>
       <c r="P6" t="n">
-        <v>331097.1783695373</v>
+        <v>331089.416287267</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="F2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H2" t="n">
         <v>82.71777539290478</v>
@@ -26707,19 +26707,19 @@
         <v>82.71777539290478</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="L2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N2" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O2" t="n">
         <v>82.71777539290478</v>
@@ -26750,19 +26750,19 @@
         <v>585.0208306634613</v>
       </c>
       <c r="G3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="I3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="J3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="K3" t="n">
-        <v>585.0208306634612</v>
+        <v>585.0208306634613</v>
       </c>
       <c r="L3" t="n">
         <v>585.0208306634612</v>
@@ -26808,10 +26808,10 @@
         <v>915.0751954850732</v>
       </c>
       <c r="I4" t="n">
-        <v>915.0751954850731</v>
+        <v>915.0751954850732</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850733</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850733</v>
@@ -26820,7 +26820,7 @@
         <v>915.0751954850732</v>
       </c>
       <c r="M4" t="n">
-        <v>915.0751954850732</v>
+        <v>915.0751954850731</v>
       </c>
       <c r="N4" t="n">
         <v>915.0751954850731</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437836</v>
+        <v>57.76350514437824</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437836</v>
+        <v>57.76350514437825</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852654</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776593</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074142</v>
+        <v>674.060906607414</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437836</v>
+        <v>57.76350514437824</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852647</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>194.4189411335972</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.484462477529</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>42.28270542509512</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,16 +27515,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>94.22770293352697</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,31 +27613,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>171.2136902881097</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>165.8617568640524</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,7 +27673,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>100.2312110345748</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.61996725087049</v>
+        <v>39.924482847002</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,19 +27862,19 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>182.8583651186855</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>70.2060485105651</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>167.2181360724585</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="C11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="D11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="F11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="G11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="H11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="I11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="T11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="U11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="V11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="W11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="X11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="C13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="D13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="E13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="F13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="G13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="H13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="I13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="J13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="K13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="L13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="M13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="N13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="O13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="P13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="R13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="S13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="T13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="U13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="V13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="W13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="X13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
       <c r="Y13" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852649</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="C14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="D14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="E14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="F14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="G14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="H14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="I14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>2.135189281195295</v>
       </c>
       <c r="S14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="T14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="U14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="V14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="W14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="X14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="C16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="D16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="E16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="F16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="G16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="H16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="I16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="J16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="K16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="L16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="M16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="N16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="O16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="P16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="R16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="S16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="T16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="U16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="V16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="W16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="X16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.95427024852635</v>
+        <v>24.95427024852655</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281194394</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290471</v>
+        <v>82.71777539290478</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S20" t="n">
         <v>82.71777539290478</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281196224</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S23" t="n">
         <v>82.71777539290478</v>
@@ -29092,7 +29092,7 @@
         <v>82.71777539290478</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290511</v>
       </c>
       <c r="V23" t="n">
         <v>82.71777539290478</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.135189281195323</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290477</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29557,28 +29557,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.135189281197124</v>
+        <v>2.135189281195295</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290478</v>
+        <v>82.7177753929047</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>2.135189281195323</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290571</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>2.135189281196224</v>
       </c>
       <c r="S38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.71777539290478</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="41">
@@ -31841,10 +31841,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>203.1953954956288</v>
+        <v>22.430208491456</v>
       </c>
       <c r="L12" t="n">
-        <v>92.45609810898429</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M12" t="n">
         <v>318.8363527115864</v>
@@ -32081,22 +32081,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>129.00334283213</v>
+        <v>55.36246600625691</v>
       </c>
       <c r="M15" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406848</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>299.3926886886866</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
         <v>78.12787621577323</v>
@@ -32224,28 +32224,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H17" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I17" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J17" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K17" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L17" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M17" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N17" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O17" t="n">
         <v>396.2590089746664</v>
@@ -32254,13 +32254,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R17" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S17" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T17" t="n">
         <v>10.29519069840925</v>
@@ -32309,10 +32309,10 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I18" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068078</v>
       </c>
       <c r="K18" t="n">
         <v>203.1953954956288</v>
@@ -32321,31 +32321,31 @@
         <v>273.2212851131571</v>
       </c>
       <c r="M18" t="n">
-        <v>318.8363527115863</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>279.2543531527159</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R18" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S18" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T18" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H19" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I19" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K19" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L19" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M19" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N19" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O19" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P19" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S19" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T19" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,28 +32461,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H20" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J20" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035459</v>
       </c>
       <c r="L20" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M20" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N20" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
         <v>396.2590089746664</v>
@@ -32491,13 +32491,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q20" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R20" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
@@ -32546,7 +32546,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32555,34 +32555,34 @@
         <v>203.1953954956288</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131571</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>245.0798875024147</v>
       </c>
       <c r="O21" t="n">
-        <v>279.2543531527159</v>
+        <v>299.3926886886866</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S21" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I22" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K22" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M22" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N22" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O22" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P22" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R22" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S22" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,28 +32698,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H23" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I23" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J23" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K23" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L23" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M23" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N23" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O23" t="n">
         <v>396.2590089746664</v>
@@ -32728,13 +32728,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q23" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R23" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S23" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T23" t="n">
         <v>10.29519069840925</v>
@@ -32783,43 +32783,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I24" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J24" t="n">
-        <v>118.8861671068077</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>203.1953954956288</v>
+        <v>27.48015245425844</v>
       </c>
       <c r="L24" t="n">
-        <v>273.2212851131571</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>318.8363527115863</v>
+        <v>318.8363527115864</v>
       </c>
       <c r="N24" t="n">
         <v>327.2750022406848</v>
       </c>
       <c r="O24" t="n">
-        <v>88.42365000691581</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>240.2890275983564</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>160.6268514682017</v>
       </c>
       <c r="R24" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S24" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T24" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H25" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I25" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K25" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L25" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M25" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N25" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O25" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P25" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R25" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S25" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T25" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,28 +32935,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H26" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I26" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J26" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K26" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L26" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M26" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N26" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O26" t="n">
         <v>396.2590089746664</v>
@@ -32965,13 +32965,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q26" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R26" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S26" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T26" t="n">
         <v>10.29519069840925</v>
@@ -33020,43 +33020,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I27" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>130.1418431533201</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L27" t="n">
         <v>273.2212851131571</v>
       </c>
       <c r="M27" t="n">
-        <v>318.8363527115863</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>327.2750022406848</v>
       </c>
       <c r="O27" t="n">
-        <v>299.3926886886866</v>
+        <v>110.1888521554151</v>
       </c>
       <c r="P27" t="n">
-        <v>240.2890275983564</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R27" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S27" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T27" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H28" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I28" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K28" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L28" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M28" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N28" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O28" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P28" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R28" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S28" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T28" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,28 +33172,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.351842535330495</v>
+        <v>2.351842535330496</v>
       </c>
       <c r="H29" t="n">
-        <v>24.08580736495344</v>
+        <v>24.08580736495345</v>
       </c>
       <c r="I29" t="n">
-        <v>90.66940934332902</v>
+        <v>90.66940934332904</v>
       </c>
       <c r="J29" t="n">
-        <v>199.6096953830068</v>
+        <v>199.6096953830069</v>
       </c>
       <c r="K29" t="n">
         <v>299.1631899035468</v>
       </c>
       <c r="L29" t="n">
-        <v>371.1383908941675</v>
+        <v>371.1383908941676</v>
       </c>
       <c r="M29" t="n">
-        <v>412.9629705818512</v>
+        <v>412.9629705818513</v>
       </c>
       <c r="N29" t="n">
-        <v>419.645143185359</v>
+        <v>419.6451431853591</v>
       </c>
       <c r="O29" t="n">
         <v>396.2590089746664</v>
@@ -33202,13 +33202,13 @@
         <v>338.1978963836947</v>
       </c>
       <c r="Q29" t="n">
-        <v>253.9725355871712</v>
+        <v>253.9725355871713</v>
       </c>
       <c r="R29" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S29" t="n">
-        <v>53.59261177384372</v>
+        <v>53.59261177384373</v>
       </c>
       <c r="T29" t="n">
         <v>10.29519069840925</v>
@@ -33257,25 +33257,25 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I30" t="n">
-        <v>43.32465585573746</v>
+        <v>43.32465585573747</v>
       </c>
       <c r="J30" t="n">
-        <v>87.74381865363462</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M30" t="n">
-        <v>318.8363527115863</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>327.2750022406848</v>
       </c>
       <c r="O30" t="n">
-        <v>299.3926886886866</v>
+        <v>73.09522005268769</v>
       </c>
       <c r="P30" t="n">
         <v>240.2890275983564</v>
@@ -33284,16 +33284,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R30" t="n">
-        <v>78.12787621577321</v>
+        <v>78.12787621577323</v>
       </c>
       <c r="S30" t="n">
         <v>23.37323790433733</v>
       </c>
       <c r="T30" t="n">
-        <v>5.072020220563402</v>
+        <v>5.072020220563403</v>
       </c>
       <c r="U30" t="n">
-        <v>0.08278596660332002</v>
+        <v>0.08278596660332004</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H31" t="n">
-        <v>9.37951430145681</v>
+        <v>9.379514301456812</v>
       </c>
       <c r="I31" t="n">
         <v>31.72539193171689</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58536065688094</v>
+        <v>74.58536065688095</v>
       </c>
       <c r="K31" t="n">
-        <v>122.5666592767054</v>
+        <v>122.5666592767055</v>
       </c>
       <c r="L31" t="n">
         <v>156.8431256503319</v>
       </c>
       <c r="M31" t="n">
-        <v>165.3690849693452</v>
+        <v>165.3690849693453</v>
       </c>
       <c r="N31" t="n">
-        <v>161.4369777468532</v>
+        <v>161.4369777468533</v>
       </c>
       <c r="O31" t="n">
         <v>149.1131782812377</v>
       </c>
       <c r="P31" t="n">
-        <v>127.5920841171587</v>
+        <v>127.5920841171588</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.33814543018264</v>
+        <v>88.33814543018265</v>
       </c>
       <c r="R31" t="n">
-        <v>47.4346398108439</v>
+        <v>47.43463981084391</v>
       </c>
       <c r="S31" t="n">
-        <v>18.38499889150581</v>
+        <v>18.38499889150582</v>
       </c>
       <c r="T31" t="n">
-        <v>4.507537547734863</v>
+        <v>4.507537547734864</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05754303252427493</v>
+        <v>0.05754303252427494</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,25 +33497,25 @@
         <v>43.32465585573746</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74381865363463</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M33" t="n">
         <v>318.8363527115863</v>
       </c>
       <c r="N33" t="n">
-        <v>327.2750022406848</v>
+        <v>22.43020849145597</v>
       </c>
       <c r="O33" t="n">
         <v>299.3926886886866</v>
       </c>
       <c r="P33" t="n">
-        <v>240.2890275983564</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>160.6268514682017</v>
@@ -33734,16 +33734,16 @@
         <v>43.32465585573746</v>
       </c>
       <c r="J36" t="n">
-        <v>87.74381865363463</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>318.8363527115863</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>327.2750022406848</v>
@@ -33752,7 +33752,7 @@
         <v>299.3926886886866</v>
       </c>
       <c r="P36" t="n">
-        <v>240.2890275983564</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>160.6268514682017</v>
@@ -33971,22 +33971,22 @@
         <v>43.32465585573746</v>
       </c>
       <c r="J39" t="n">
-        <v>87.74381865363463</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>203.1953954956288</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>273.2212851131571</v>
       </c>
       <c r="M39" t="n">
         <v>318.8363527115863</v>
       </c>
       <c r="N39" t="n">
-        <v>327.2750022406848</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>299.3926886886866</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>240.2890275983564</v>
@@ -34129,7 +34129,7 @@
         <v>90.66940934332902</v>
       </c>
       <c r="J41" t="n">
-        <v>199.6096953830081</v>
+        <v>199.6096953830068</v>
       </c>
       <c r="K41" t="n">
         <v>299.1631899035468</v>
@@ -34211,7 +34211,7 @@
         <v>118.8861671068077</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>10.86376705158031</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34226,10 +34226,10 @@
         <v>299.3926886886866</v>
       </c>
       <c r="P42" t="n">
-        <v>240.2890275983564</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.4845030150287</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.12787621577321</v>
@@ -34445,7 +34445,7 @@
         <v>43.32465585573746</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>118.8861671068077</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34457,10 +34457,10 @@
         <v>318.8363527115863</v>
       </c>
       <c r="N45" t="n">
-        <v>327.2750022406848</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>299.3926886886866</v>
+        <v>236.6155789143937</v>
       </c>
       <c r="P45" t="n">
         <v>240.2890275983564</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8191935338484</v>
+        <v>149.0540065296756</v>
       </c>
       <c r="L12" t="n">
-        <v>324.7420636325693</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M12" t="n">
         <v>642.4073825395679</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734529</v>
+        <v>6.18045078873466</v>
       </c>
       <c r="K13" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993491</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591746</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746083</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438037</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305787</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.13037242701462</v>
+        <v>27.13037242701475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>361.289308355715</v>
+        <v>287.6484315298419</v>
       </c>
       <c r="M15" t="n">
         <v>642.4073825395679</v>
       </c>
       <c r="N15" t="n">
-        <v>675.2756645009051</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.180450788734529</v>
+        <v>6.180450788734717</v>
       </c>
       <c r="K16" t="n">
-        <v>125.251437699349</v>
+        <v>125.2514376993492</v>
       </c>
       <c r="L16" t="n">
-        <v>209.3874211591744</v>
+        <v>209.3874211591746</v>
       </c>
       <c r="M16" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797124</v>
       </c>
       <c r="N16" t="n">
-        <v>230.5234203746082</v>
+        <v>230.5234203746084</v>
       </c>
       <c r="O16" t="n">
-        <v>198.6525764438037</v>
+        <v>198.6525764438039</v>
       </c>
       <c r="P16" t="n">
-        <v>149.8249136305786</v>
+        <v>149.8249136305788</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.13037242701462</v>
+        <v>27.13037242701481</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L17" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M17" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N17" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O17" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P17" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K18" t="n">
         <v>329.8191935338484</v>
@@ -35969,19 +35969,19 @@
         <v>505.5072506367421</v>
       </c>
       <c r="M18" t="n">
-        <v>642.4073825395678</v>
+        <v>75.33127860449049</v>
       </c>
       <c r="N18" t="n">
-        <v>627.2550154129361</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311287</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437273</v>
+        <v>183.0149428437274</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M19" t="n">
-        <v>287.6707373240905</v>
+        <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189865</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O19" t="n">
-        <v>256.416081588182</v>
+        <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.5884187749569</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139296</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>187.6604060283943</v>
       </c>
       <c r="K20" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297301</v>
       </c>
       <c r="L20" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N20" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O20" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q20" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>329.8191935338484</v>
       </c>
       <c r="L21" t="n">
-        <v>505.5072506367421</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>593.080549762635</v>
       </c>
       <c r="O21" t="n">
-        <v>530.520427985001</v>
+        <v>550.6587635209717</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K22" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M22" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N22" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O22" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P22" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L23" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M23" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N23" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O23" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P23" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q23" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>329.8191935338484</v>
+        <v>154.103950492478</v>
       </c>
       <c r="L24" t="n">
-        <v>505.5072506367421</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395678</v>
+        <v>642.4073825395679</v>
       </c>
       <c r="N24" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O24" t="n">
-        <v>339.6897248392009</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>424.7773888239633</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311296</v>
       </c>
       <c r="K25" t="n">
         <v>183.0149428437274</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M25" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P25" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749571</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139305</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L26" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M26" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N26" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O26" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P26" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q26" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>256.7656411915397</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L27" t="n">
         <v>505.5072506367421</v>
       </c>
       <c r="M27" t="n">
-        <v>642.4073825395678</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O27" t="n">
-        <v>550.6587635209717</v>
+        <v>361.4549269877002</v>
       </c>
       <c r="P27" t="n">
-        <v>424.7773888239633</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,13 +36756,13 @@
         <v>183.0149428437274</v>
       </c>
       <c r="L28" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M28" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N28" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O28" t="n">
         <v>256.4160815881821</v>
@@ -36835,22 +36835,22 @@
         <v>403.218751429731</v>
       </c>
       <c r="L29" t="n">
-        <v>553.0331904746306</v>
+        <v>553.0331904746308</v>
       </c>
       <c r="M29" t="n">
-        <v>632.1302708474109</v>
+        <v>632.130270847411</v>
       </c>
       <c r="N29" t="n">
-        <v>627.5790040007522</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O29" t="n">
-        <v>546.960978815725</v>
+        <v>546.9609788157251</v>
       </c>
       <c r="P29" t="n">
         <v>428.7636087999078</v>
       </c>
       <c r="Q29" t="n">
-        <v>243.9818363726264</v>
+        <v>243.9818363726265</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.99722732737676</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M30" t="n">
-        <v>642.4073825395678</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>675.275664500905</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O30" t="n">
-        <v>550.6587635209717</v>
+        <v>324.3612948849728</v>
       </c>
       <c r="P30" t="n">
         <v>424.7773888239633</v>
       </c>
       <c r="Q30" t="n">
-        <v>230.7223651180292</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K31" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L31" t="n">
         <v>267.1509263035528</v>
@@ -36999,16 +36999,16 @@
         <v>287.6707373240906</v>
       </c>
       <c r="N31" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O31" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P31" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.99722732737678</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M33" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N33" t="n">
-        <v>675.275664500905</v>
+        <v>370.4308707516762</v>
       </c>
       <c r="O33" t="n">
         <v>550.6587635209717</v>
       </c>
       <c r="P33" t="n">
-        <v>424.7773888239633</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>230.7223651180292</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K34" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L34" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M34" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N34" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O34" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P34" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.99722732737678</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>198.1638383229209</v>
       </c>
       <c r="M36" t="n">
-        <v>642.4073825395678</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
         <v>675.275664500905</v>
@@ -37400,7 +37400,7 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P36" t="n">
-        <v>424.7773888239633</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>230.7223651180292</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K37" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L37" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M37" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N37" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O37" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P37" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.99722732737678</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>329.8191935338484</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>505.5072506367421</v>
       </c>
       <c r="M39" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N39" t="n">
-        <v>675.275664500905</v>
+        <v>226.3391363463779</v>
       </c>
       <c r="O39" t="n">
-        <v>550.6587635209717</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>424.7773888239633</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311287</v>
       </c>
       <c r="K40" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L40" t="n">
         <v>267.1509263035528</v>
       </c>
       <c r="M40" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N40" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189865</v>
       </c>
       <c r="O40" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P40" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.89387757139303</v>
+        <v>84.89387757139296</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>187.6604060283956</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K41" t="n">
         <v>403.218751429731</v>
@@ -37859,10 +37859,10 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.4875650897999</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395678</v>
@@ -37874,10 +37874,10 @@
         <v>550.6587635209717</v>
       </c>
       <c r="P42" t="n">
-        <v>424.7773888239633</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.5800166648563</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>86.99722732737678</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>642.4073825395678</v>
       </c>
       <c r="N45" t="n">
-        <v>675.275664500905</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>550.6587635209717</v>
+        <v>487.8816537466788</v>
       </c>
       <c r="P45" t="n">
         <v>424.7773888239633</v>
